--- a/boohedonists_files/boohedonists_book_list.xlsx
+++ b/boohedonists_files/boohedonists_book_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="131">
   <si>
     <t xml:space="preserve">title</t>
   </si>
@@ -377,6 +377,54 @@
   </si>
   <si>
     <t xml:space="preserve">«Эмма»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Джейн Остин]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[реализм, любовный роман]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1009917754-emma-dzhejn-ostin, https://fantlab.ru/work276597]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Что увидела Кассандра»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Гвен Эрин Кирби]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[юмористическая проза]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1008384058-chto-uvidela-kassandra-rasskazy-sbornik-gven-i-kirbi, https://fantlab.ru/work1710870]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">«</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Прачечная, стирающая печали</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">»</t>
+    </r>
   </si>
   <si>
     <r>
@@ -394,14 +442,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Джейн Остин]</t>
+      <t xml:space="preserve">Ким Чжи Юн]</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">[реализм, любовный роман]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[https://www.livelib.ru/book/1009917754-emma-dzhejn-ostin, https://fantlab.ru/work276597]</t>
+    <t xml:space="preserve">[Южная Корея]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[feel good]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1010079670-prachechnaya-stirayuschaya-pechali-kim-chzhi-yun, https://www.chitai-gorod.ru/product/prachechnaya-stirayushchaya-pechali-roman-3041785]</t>
   </si>
 </sst>
 </file>
@@ -481,12 +532,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -509,11 +564,11 @@
   </sheetPr>
   <dimension ref="A1:K153"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I32" activeCellId="0" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.46"/>
@@ -1542,8 +1597,74 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="A30" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>304</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H32" s="1"/>

--- a/boohedonists_files/boohedonists_book_list.xlsx
+++ b/boohedonists_files/boohedonists_book_list.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="135">
   <si>
     <t xml:space="preserve">title</t>
   </si>
@@ -400,31 +400,22 @@
     <t xml:space="preserve">[https://www.livelib.ru/book/1008384058-chto-uvidela-kassandra-rasskazy-sbornik-gven-i-kirbi, https://fantlab.ru/work1710870]</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">«</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Прачечная, стирающая печали</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">»</t>
-    </r>
+    <t xml:space="preserve">«Прачечная, стирающая печали»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Ким Чжи Юн]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Южная Корея]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[feel good]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[https://www.livelib.ru/book/1010079670-prachechnaya-stirayuschaya-pechali-kim-chzhi-yun, https://www.chitai-gorod.ru/product/prachechnaya-stirayushchaya-pechali-roman-3041785]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Руководство по истреблению вампиров от книжного клуба Южного округа»</t>
   </si>
   <si>
     <r>
@@ -442,17 +433,14 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Ким Чжи Юн]</t>
+      <t xml:space="preserve">Грейди Хендрикс]</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">[Южная Корея]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[feel good]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[https://www.livelib.ru/book/1010079670-prachechnaya-stirayuschaya-pechali-kim-chzhi-yun, https://www.chitai-gorod.ru/product/prachechnaya-stirayushchaya-pechali-roman-3041785]</t>
+    <t xml:space="preserve">[ужасы, триллер]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[htthttps://www.livelib.ru/book/1007526964-rukovodstvo-po-istrebleniyu-vampirov-ot-knizhnogo-kluba-yuzhnogo-okruga-grejdi-hendriksps://fantlab.ru/work1316226, ]</t>
   </si>
 </sst>
 </file>
@@ -537,11 +525,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -557,1077 +545,1183 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K153"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I32" activeCellId="0" sqref="I32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="22.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="106.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="22.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="106.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="0" t="n">
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="n">
         <v>1989</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="2" t="n">
         <v>224</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="0" t="n">
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="n">
         <v>1962</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="2" t="n">
         <v>224</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <v>992</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="0" t="n">
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="n">
         <v>1956</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="2" t="n">
         <v>288</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="K5" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="0" t="n">
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="2" t="n">
         <v>224</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="K6" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="0" t="n">
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="n">
         <v>1909</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="2" t="n">
         <v>480</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="K7" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>1938</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="2" t="n">
         <v>288</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="K8" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="0" t="n">
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="2" t="n">
         <v>480</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="K9" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="0" t="n">
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="K10" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="0" t="n">
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="n">
         <v>1963</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="1" t="n">
+      <c r="G11" s="2" t="n">
         <v>288</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="K11" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="0" t="n">
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1" t="n">
         <v>1321</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="1" t="n">
+      <c r="G12" s="2" t="n">
         <v>448</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="K12" s="0" t="s">
+      <c r="K12" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="0" t="n">
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="n">
         <v>1900</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="1" t="n">
+      <c r="G13" s="2" t="n">
         <v>544</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="K13" s="0" t="s">
+      <c r="K13" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="1" t="n">
         <v>1868</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="G14" s="2" t="n">
         <v>448</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="K14" s="0" t="s">
+      <c r="K14" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="1" t="n">
+      <c r="G15" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="K15" s="0" t="s">
+      <c r="K15" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="0" t="n">
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1" t="n">
         <v>1983</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="1" t="n">
+      <c r="G16" s="2" t="n">
         <v>384</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="J16" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="K16" s="0" t="s">
+      <c r="J16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="0" t="n">
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1" t="n">
         <v>1929</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="1" t="n">
+      <c r="G17" s="2" t="n">
         <v>347</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="K17" s="0" t="s">
+      <c r="K17" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="0" t="n">
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1" t="n">
         <v>1970</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="1" t="n">
+      <c r="G18" s="2" t="n">
         <v>224</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="J18" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="K18" s="0" t="s">
+      <c r="K18" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="0" t="n">
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="1" t="n">
+      <c r="G19" s="2" t="n">
         <v>473</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="J19" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="K19" s="0" t="s">
+      <c r="K19" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="0" t="n">
+      <c r="D20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="1" t="n">
         <v>1961</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="1" t="n">
+      <c r="G20" s="2" t="n">
         <v>128</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="J20" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="K20" s="0" t="s">
+      <c r="K20" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="0" t="n">
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1" t="n">
         <v>1843</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="1" t="n">
+      <c r="G21" s="2" t="n">
         <v>206</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="I21" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="J21" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="K21" s="0" t="s">
+      <c r="K21" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="0" t="n">
+      <c r="D22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="1" t="n">
         <v>2007</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="1" t="n">
+      <c r="G22" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="I22" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="J22" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="K22" s="0" t="s">
+      <c r="K22" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="0" t="n">
+      <c r="D23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="1" t="n">
         <v>1914</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="1" t="n">
+      <c r="G23" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="I23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="J23" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K23" s="0" t="s">
+      <c r="K23" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="0" t="n">
+      <c r="D24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="1" t="n">
         <v>1886</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G24" s="1" t="n">
+      <c r="G24" s="2" t="n">
         <v>128</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="I24" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="J24" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K24" s="0" t="s">
+      <c r="K24" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="0" t="n">
+      <c r="D25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G25" s="1" t="n">
+      <c r="G25" s="2" t="n">
         <v>352</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="I25" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="J25" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K25" s="0" t="s">
+      <c r="K25" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="1" t="n">
+      <c r="G26" s="2" t="n">
         <v>352</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="I26" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="J26" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="K26" s="0" t="s">
+      <c r="K26" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="0" t="n">
+      <c r="D27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="1" t="n">
+      <c r="G27" s="2" t="n">
         <v>448</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="H27" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="I27" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="J27" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="K27" s="0" t="s">
+      <c r="K27" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="0" t="n">
+      <c r="D28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="1" t="n">
         <v>1920</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="1" t="n">
+      <c r="G28" s="2" t="n">
         <v>352</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="H28" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="I28" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="J28" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="K28" s="0" t="s">
+      <c r="K28" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29" s="1" t="n">
         <v>1816</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G29" s="1" t="n">
+      <c r="G29" s="2" t="n">
         <v>512</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="H29" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="I29" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="J29" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="K29" s="0" t="s">
+      <c r="K29" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G30" s="1" t="n">
+      <c r="G30" s="2" t="n">
         <v>224</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="H30" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="I30" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="J30" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="K30" s="0" t="s">
+      <c r="K30" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1635,354 +1729,384 @@
       <c r="A31" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="F31" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="G31" s="1" t="n">
         <v>304</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="H31" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="I31" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="J31" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="K31" s="0" t="s">
+      <c r="K31" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>544</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="J32" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="F33" s="2"/>
+      <c r="H33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H34" s="1"/>
+      <c r="H34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="F35" s="2"/>
+      <c r="H35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="H36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="F37" s="2"/>
+      <c r="H37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="F38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F39" s="1"/>
+      <c r="F39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F40" s="1"/>
+      <c r="F40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F41" s="1"/>
+      <c r="F41" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F44" s="1"/>
+      <c r="F44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F45" s="1"/>
+      <c r="F45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F46" s="1"/>
+      <c r="F46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="1"/>
-      <c r="F47" s="1"/>
+      <c r="B47" s="2"/>
+      <c r="F47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="F48" s="1"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="F48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="F49" s="1"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="F49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F50" s="1"/>
+      <c r="F50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F51" s="1"/>
+      <c r="F51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F53" s="1"/>
+      <c r="F53" s="2"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="F54" s="1"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="F54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F55" s="1"/>
+      <c r="F55" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F59" s="1"/>
+      <c r="F59" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="F61" s="1"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="F61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="F62" s="1"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="F62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F63" s="1"/>
+      <c r="F63" s="2"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F64" s="1"/>
+      <c r="F64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F65" s="1"/>
+      <c r="F65" s="2"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F66" s="1"/>
+      <c r="F66" s="2"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F68" s="1"/>
+      <c r="F68" s="2"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F70" s="1"/>
+      <c r="F70" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F71" s="1"/>
+      <c r="F71" s="2"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F72" s="1"/>
+      <c r="F72" s="2"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F73" s="1"/>
+      <c r="F73" s="2"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F74" s="1"/>
+      <c r="F74" s="2"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F75" s="1"/>
+      <c r="F75" s="2"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F76" s="1"/>
+      <c r="F76" s="2"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F77" s="1"/>
+      <c r="F77" s="2"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F79" s="1"/>
+      <c r="F79" s="2"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F83" s="1"/>
+      <c r="F83" s="2"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F84" s="1"/>
+      <c r="F84" s="2"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F87" s="1"/>
+      <c r="F87" s="2"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F89" s="1"/>
+      <c r="F89" s="2"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1"/>
+      <c r="A90" s="2"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F92" s="1"/>
+      <c r="F92" s="2"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F94" s="1"/>
+      <c r="F94" s="2"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="F95" s="1"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="F95" s="2"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F96" s="1"/>
+      <c r="F96" s="2"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F97" s="1"/>
+      <c r="F97" s="2"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F100" s="1"/>
+      <c r="F100" s="2"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1"/>
-      <c r="F103" s="1"/>
+      <c r="A103" s="2"/>
+      <c r="F103" s="2"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F104" s="1"/>
+      <c r="F104" s="2"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F105" s="1"/>
+      <c r="F105" s="2"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F106" s="1"/>
+      <c r="F106" s="2"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F108" s="1"/>
+      <c r="F108" s="2"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F109" s="1"/>
+      <c r="F109" s="2"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F110" s="1"/>
+      <c r="F110" s="2"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F111" s="1"/>
+      <c r="F111" s="2"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F114" s="1"/>
+      <c r="F114" s="2"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F115" s="1"/>
+      <c r="F115" s="2"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F117" s="1"/>
+      <c r="F117" s="2"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F118" s="1"/>
+      <c r="F118" s="2"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F120" s="1"/>
+      <c r="F120" s="2"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F122" s="1"/>
+      <c r="F122" s="2"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F123" s="1"/>
+      <c r="F123" s="2"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F125" s="1"/>
+      <c r="F125" s="2"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F126" s="1"/>
+      <c r="F126" s="2"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F127" s="1"/>
+      <c r="F127" s="2"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F128" s="1"/>
+      <c r="F128" s="2"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F129" s="1"/>
+      <c r="F129" s="2"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F130" s="1"/>
+      <c r="F130" s="2"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F131" s="1"/>
+      <c r="F131" s="2"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F132" s="1"/>
+      <c r="F132" s="2"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F133" s="1"/>
+      <c r="F133" s="2"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F134" s="1"/>
+      <c r="F134" s="2"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F135" s="1"/>
+      <c r="F135" s="2"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F136" s="1"/>
+      <c r="F136" s="2"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F137" s="1"/>
+      <c r="F137" s="2"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F138" s="1"/>
+      <c r="F138" s="2"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F139" s="1"/>
+      <c r="F139" s="2"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F140" s="1"/>
+      <c r="F140" s="2"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F141" s="1"/>
+      <c r="F141" s="2"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F142" s="1"/>
+      <c r="F142" s="2"/>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F144" s="1"/>
+      <c r="F144" s="2"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F145" s="1"/>
+      <c r="F145" s="2"/>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F146" s="1"/>
+      <c r="F146" s="2"/>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F147" s="1"/>
+      <c r="F147" s="2"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F150" s="1"/>
+      <c r="F150" s="2"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F151" s="1"/>
+      <c r="F151" s="2"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F153" s="1"/>
+      <c r="F153" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
